--- a/docs/odh/odh-WeeklyWorkDays-model.xlsx
+++ b/docs/odh/odh-WeeklyWorkDays-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="115">
   <si>
     <t>Path</t>
   </si>
@@ -300,7 +300,7 @@
     <t>odh-WeeklyWorkDays-model.dataValue</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Quantity-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Quantity-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -335,12 +335,6 @@
     <t>The unit of measure of the quantity.</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/AllUnitsVS</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0805701
 </t>
   </si>
@@ -357,10 +351,19 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
+    <t>odh-WeeklyWorkDays-model.interpretation</t>
+  </si>
+  <si>
+    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
     <t>odh-WeeklyWorkDays-model.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -368,19 +371,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0883335
-</t>
-  </si>
-  <si>
-    <t>odh-WeeklyWorkDays-model.interpretation</t>
-  </si>
-  <si>
-    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0420833
 </t>
   </si>
 </sst>
@@ -530,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1917,14 +1907,16 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1956,7 +1948,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1982,10 +1974,10 @@
         <v>42</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2012,11 +2004,11 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>36</v>
@@ -2034,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2051,7 +2043,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2074,13 +2066,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2107,16 +2099,14 @@
         <v>36</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2131,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2148,7 +2138,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2171,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2204,14 +2194,16 @@
         <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2226,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
